--- a/tests/testthat/fixtures/ex3/tables/mv_person_all.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/mv_person_all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Number of missing responses</t>
   </si>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
@@ -67,28 +64,28 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21</t>
+    <t xml:space="preserve">0.22</t>
   </si>
   <si>
     <t xml:space="preserve">0.06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">0.46</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>80.62</v>
+        <v>80.19</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>17.76</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +454,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>94.48</v>
+        <v>94.38</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>57.86</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>28.52</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>8.43</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
@@ -589,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>42.29</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="3">
@@ -657,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>35.95</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="4">
@@ -665,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>14.33</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="5">
@@ -673,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4.29</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="6">
@@ -689,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9">
@@ -705,15 +710,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -732,53 +729,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +814,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -829,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
